--- a/data/trans_camb/P37_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P37_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>19,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>14,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>21,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,37</t>
+          <t>-15,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10,47</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 30,57</t>
+          <t>-3,69; 51,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 33,61</t>
+          <t>-11,14; 51,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 2,81</t>
+          <t>-5,07; 55,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 2,72</t>
+          <t>-32,2; 2,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 12,26</t>
+          <t>-22,53; 16,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 10,76</t>
+          <t>-20,88; 23,47</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 27,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 31,33</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 34,01</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>57,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>40,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,59%</t>
+          <t>61,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,28%</t>
+          <t>2,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 133,51</t>
+          <t>-10,93; 295,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,37; 127,48</t>
+          <t>-27,65; 290,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 8,38</t>
+          <t>-13,87; 335,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,58; 7,12</t>
+          <t>-67,46; 11,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 37,58</t>
+          <t>-46,09; 52,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,69; 32,11</t>
+          <t>-43,08; 75,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-31,74; 96,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-27,32; 115,77</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 125,19</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,57</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 11,67</t>
+          <t>-12,7; 13,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 8,55</t>
+          <t>-14,27; 12,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 10,7</t>
+          <t>-9,87; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 12,2</t>
+          <t>-4,63; 15,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 8,04</t>
+          <t>-4,91; 15,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 7,46</t>
+          <t>-2,74; 17,75</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 10,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 10,15</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 14,1</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>14,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,22%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 35,11</t>
+          <t>-28,08; 40,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 26,2</t>
+          <t>-30,32; 36,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 32,35</t>
+          <t>-20,75; 50,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 36,92</t>
+          <t>-11,67; 48,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 23,66</t>
+          <t>-12,17; 47,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 22,45</t>
+          <t>-6,1; 55,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 29,75</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; 28,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 38,96</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>12,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,51</t>
+          <t>-11,26; 12,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 10,0</t>
+          <t>-10,23; 14,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 16,96</t>
+          <t>-7,47; 18,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 16,15</t>
+          <t>-1,76; 19,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 12,04</t>
+          <t>-3,82; 16,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 11,08</t>
+          <t>1,13; 23,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 12,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 11,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 17,96</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>42,42%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16,63%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 42,93</t>
+          <t>-30,68; 49,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 39,49</t>
+          <t>-26,32; 56,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 61,43</t>
+          <t>-20,21; 73,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 61,44</t>
+          <t>-5,96; 82,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 44,04</t>
+          <t>-11,34; 68,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 40,66</t>
+          <t>1,36; 96,44</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-9,63; 48,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-10,83; 47,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 70,75</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 8,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 30,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 24,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 22,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 26,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 21,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 20,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7,74</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4,69</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8,72</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 12,43</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 12,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 18,64</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 10,07</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,83; 10,79</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 16,83</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 9,81</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 10,02</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 14,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,04; 41,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-14,88; 39,09</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 57,2</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 32,88</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 35,87</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 53,41</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 30,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 30,67</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 44,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
